--- a/inputs/odias_params_2d.xlsx
+++ b/inputs/odias_params_2d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19019B6E-FB95-46B8-BE36-1D1732CC735C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA42541-4EA6-4F75-B5E6-481533F03B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="3465" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="26JUL24" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>fname</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>odias_labels_2d</t>
-  </si>
-  <si>
-    <t>Tandam\dma_params_2d</t>
   </si>
   <si>
     <t>dma_params_2d</t>
@@ -399,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +440,7 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -796,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45EC29C-D195-4BF7-9F51-4A531E8B9DB1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>1E-4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>1500</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -866,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>1E-4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -880,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2">
-        <v>1500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,13 +891,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>1E-4</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
-        <v>1500</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -908,13 +905,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>1E-4</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>1500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -922,13 +919,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1E-4</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2">
-        <v>1500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,13 +933,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1E-4</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G8" s="2">
-        <v>1500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,13 +947,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="2">
-        <v>1E-4</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G9" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,13 +961,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>1E-4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="G10" s="2">
-        <v>1500</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1E-4</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="1">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -992,13 +989,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>1E-4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G12" s="2">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1006,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1E-4</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="G13" s="2">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1020,13 +1017,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>1E-4</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="G14" s="2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">

--- a/inputs/odias_params_2d.xlsx
+++ b/inputs/odias_params_2d.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hmdni\OneDrive\Documents\GitHub\odias\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA42541-4EA6-4F75-B5E6-481533F03B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC19625-3ADC-4855-A026-BA17D3DE603D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="26JUL24" sheetId="3" r:id="rId1"/>
-    <sheet name="30JUL24" sheetId="5" r:id="rId2"/>
+    <sheet name="21AUG24" sheetId="6" r:id="rId1"/>
+    <sheet name="20AUG24_1" sheetId="7" r:id="rId2"/>
+    <sheet name="30JUL24" sheetId="5" r:id="rId3"/>
+    <sheet name="26JUL24" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>fname</t>
   </si>
@@ -62,6 +64,12 @@
   </si>
   <si>
     <t>dma_params_2d</t>
+  </si>
+  <si>
+    <t>21AUG24</t>
+  </si>
+  <si>
+    <t>20AUG24_1</t>
   </si>
 </sst>
 </file>
@@ -393,6 +401,939 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822E11F7-6A3E-4AB8-905F-4F53233E9163}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>200</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52286026-79D7-497D-84AF-278C65171362}">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="1">
+        <v>33</v>
+      </c>
+      <c r="G5" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="1">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="1">
+        <v>70</v>
+      </c>
+      <c r="G8" s="5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>85</v>
+      </c>
+      <c r="G9" s="5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>90</v>
+      </c>
+      <c r="G10" s="5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>100</v>
+      </c>
+      <c r="G11" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>100</v>
+      </c>
+      <c r="G12" s="5">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>100</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>200</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>200</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45EC29C-D195-4BF7-9F51-4A531E8B9DB1}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>70</v>
+      </c>
+      <c r="G5" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>70</v>
+      </c>
+      <c r="G6" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>110</v>
+      </c>
+      <c r="G10" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>150</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>130</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>130</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>250</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20AA5E3-18D8-4B5E-AC08-AB63587E2B83}">
   <dimension ref="A1:H68"/>
   <sheetViews>
@@ -787,258 +1728,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45EC29C-D195-4BF7-9F51-4A531E8B9DB1}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>60</v>
-      </c>
-      <c r="G3" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>70</v>
-      </c>
-      <c r="G5" s="2">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>80</v>
-      </c>
-      <c r="G7" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="2">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>110</v>
-      </c>
-      <c r="G10" s="2">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>150</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>130</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1">
-        <v>130</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <v>250</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>